--- a/src/view/test/测试.xlsx
+++ b/src/view/test/测试.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myGithub\randomAward\src\view\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGithub\randomAward\src\view\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B01EF-8FBC-452B-90EC-C70ACF1784F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655A0F1-3DE7-4FC3-B4DE-C5BB83D3A7C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22125" yWindow="2370" windowWidth="26130" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="表1" sheetId="1" r:id="rId1"/>
-    <sheet name="表2" sheetId="2" r:id="rId2"/>
+    <sheet name="表2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,144 +25,149 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
-  <si>
-    <t>A1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>B1</t>
+    <t>测试人员13</t>
+  </si>
+  <si>
+    <t>测试人员14</t>
+  </si>
+  <si>
+    <t>测试人员15</t>
+  </si>
+  <si>
+    <t>测试人员16</t>
+  </si>
+  <si>
+    <t>测试人员17</t>
+  </si>
+  <si>
+    <t>测试人员18</t>
+  </si>
+  <si>
+    <t>测试人员19</t>
+  </si>
+  <si>
+    <t>测试人员20</t>
+  </si>
+  <si>
+    <t>测试人员21</t>
+  </si>
+  <si>
+    <t>测试人员22</t>
+  </si>
+  <si>
+    <t>测试人员23</t>
+  </si>
+  <si>
+    <t>测试人员24</t>
+  </si>
+  <si>
+    <t>测试人员25</t>
+  </si>
+  <si>
+    <t>测试人员26</t>
+  </si>
+  <si>
+    <t>测试人员27</t>
+  </si>
+  <si>
+    <t>测试人员28</t>
+  </si>
+  <si>
+    <t>测试人员29</t>
+  </si>
+  <si>
+    <t>测试人员30</t>
+  </si>
+  <si>
+    <t>测试人员31</t>
+  </si>
+  <si>
+    <t>测试人员32</t>
+  </si>
+  <si>
+    <t>测试人员33</t>
+  </si>
+  <si>
+    <t>测试人员34</t>
+  </si>
+  <si>
+    <t>测试人员35</t>
+  </si>
+  <si>
+    <t>测试人员36</t>
+  </si>
+  <si>
+    <t>测试人员37</t>
+  </si>
+  <si>
+    <t>测试人员38</t>
+  </si>
+  <si>
+    <t>测试人员39</t>
+  </si>
+  <si>
+    <t>测试人员40</t>
+  </si>
+  <si>
+    <t>测试人员41</t>
+  </si>
+  <si>
+    <t>测试人员42</t>
+  </si>
+  <si>
+    <t>测试人员43</t>
+  </si>
+  <si>
+    <t>测试人员44</t>
+  </si>
+  <si>
+    <t>测试人员45</t>
+  </si>
+  <si>
+    <t>测试人员46</t>
+  </si>
+  <si>
+    <t>测试人员12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>人名测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动开始时记录的勋章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动开始后记录的勋章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动开始时记录的斗技分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动开始后记录的斗技分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>表2A列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表2B列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>测试人员47</t>
+  </si>
+  <si>
+    <t>测试人员48</t>
+  </si>
+  <si>
+    <t>测试人员49</t>
+  </si>
+  <si>
+    <t>测试人员50</t>
+  </si>
+  <si>
+    <t>测试人员51</t>
+  </si>
+  <si>
+    <t>测试人员52</t>
+  </si>
+  <si>
+    <t>测试人员53</t>
+  </si>
+  <si>
+    <t>测试人员54</t>
+  </si>
+  <si>
+    <t>测试人员55</t>
+  </si>
+  <si>
+    <t>测试人员56</t>
+  </si>
+  <si>
+    <t>测试人员57</t>
   </si>
 </sst>
 </file>
@@ -487,211 +491,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A6B491-39B7-46A5-A354-414CBD00D6A1}">
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A6B491-39B7-46A5-A354-414CBD00D6A1}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
